--- a/Documents/MQTTFrame.xlsx
+++ b/Documents/MQTTFrame.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kylin\Desktop\DATN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manht\Desktop\DATN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A7FC8C-4EE3-4690-BC73-D6B893850565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832DB6ED-868B-48CC-B69F-667925A8202F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E53CE8A2-CB78-4D08-A677-0A65F53F0729}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E53CE8A2-CB78-4D08-A677-0A65F53F0729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="83">
   <si>
     <t>00</t>
   </si>
@@ -214,6 +214,76 @@
   </si>
   <si>
     <t>13</t>
+  </si>
+  <si>
+    <t>CONNECT</t>
+  </si>
+  <si>
+    <t>PUB</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Packet Identifier</t>
+  </si>
+  <si>
+    <t>0a</t>
+  </si>
+  <si>
+    <t>Length MSB</t>
+  </si>
+  <si>
+    <t>Length LSB</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Topic Filter</t>
+  </si>
+  <si>
+    <t>RQ QoS</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>RESPONSE
+CONACK</t>
+  </si>
+  <si>
+    <t>Package indentifi</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>PUBREL</t>
+  </si>
+  <si>
+    <t>Pack Indentifi</t>
+  </si>
+  <si>
+    <t>0A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
 </sst>
 </file>
@@ -366,33 +436,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,7 +505,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -704,405 +801,917 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411DE730-DEBA-4D9A-B567-461E24ECC70C}">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="13" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="6" t="s">
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="6" t="s">
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="7"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="20"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+    </row>
+    <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="18"/>
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="N8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="9" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="6" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="7"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="U12" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="R18" s="24"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:U3"/>
-    <mergeCell ref="V3:AA3"/>
+  <mergeCells count="24">
+    <mergeCell ref="H12:R12"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="AC3:AH3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/MQTTFrame.xlsx
+++ b/Documents/MQTTFrame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manht\Desktop\DATN\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832DB6ED-868B-48CC-B69F-667925A8202F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F70D3F-E4FB-4137-A7C2-32071C7F6DEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E53CE8A2-CB78-4D08-A677-0A65F53F0729}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E53CE8A2-CB78-4D08-A677-0A65F53F0729}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,16 +463,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -480,12 +486,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,7 +804,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,7 +819,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1021,59 +1021,59 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="19" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="19" t="s">
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="19" t="s">
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="20"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="22"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="15"/>
@@ -1111,7 +1111,7 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="15" t="s">
         <v>71</v>
       </c>
@@ -1155,11 +1155,11 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -1193,7 +1193,7 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B7" s="2"/>
@@ -1246,7 +1246,7 @@
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
@@ -1303,29 +1303,29 @@
       </c>
     </row>
     <row r="9" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="21"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B10" s="2"/>
@@ -1375,7 +1375,7 @@
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1434,45 +1434,45 @@
         <v>16</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="12" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
       <c r="U12" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="2"/>
@@ -1525,7 +1525,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
@@ -1588,34 +1588,34 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="19" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="23" t="s">
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="R18" s="24"/>
+      <c r="R18" s="23"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B23" s="2"/>
@@ -1637,7 +1637,7 @@
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
@@ -1663,15 +1663,15 @@
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="20"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
@@ -1683,11 +1683,27 @@
       <c r="N25" s="17"/>
       <c r="O25" s="17"/>
       <c r="P25" s="17"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="AC3:AH3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:AB3"/>
     <mergeCell ref="H12:R12"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B6:C6"/>
@@ -1696,22 +1712,6 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
